--- a/Collection.xlsx
+++ b/Collection.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -31,6 +29,18 @@
   </si>
   <si>
     <t>Skotidas</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Dragon of Creativity</t>
+  </si>
+  <si>
+    <t>Number 256: Neo Divine Dragon Lord Felgrand</t>
   </si>
 </sst>
 </file>
@@ -54,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,12 +91,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -110,51 +132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -165,33 +142,112 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -488,97 +544,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="9">
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="12">
         <v>121214</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13">
+        <v>60681104</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="13"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Collection.xlsx
+++ b/Collection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Number 256: Neo Divine Dragon Lord Felgrand</t>
+  </si>
+  <si>
+    <t>Raidraptor - Base Falcon</t>
+  </si>
+  <si>
+    <t>Paul.</t>
   </si>
 </sst>
 </file>
@@ -547,7 +553,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -587,9 +593,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="13">
@@ -601,15 +605,21 @@
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="13">
+        <v>66296401</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="13"/>
